--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N2">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O2">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P2">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q2">
-        <v>1.784980355027222</v>
+        <v>2.801670413333667</v>
       </c>
       <c r="R2">
-        <v>16.064823195245</v>
+        <v>25.215033720003</v>
       </c>
       <c r="S2">
-        <v>1.683798394661777E-05</v>
+        <v>2.61279430765652E-05</v>
       </c>
       <c r="T2">
-        <v>1.683798394661778E-05</v>
+        <v>2.61279430765652E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>94.809954</v>
       </c>
       <c r="O3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q3">
-        <v>611.8473050887927</v>
+        <v>578.8615315462007</v>
       </c>
       <c r="R3">
-        <v>5506.625745799134</v>
+        <v>5209.753783915806</v>
       </c>
       <c r="S3">
-        <v>0.00577164620991547</v>
+        <v>0.00539837272559698</v>
       </c>
       <c r="T3">
-        <v>0.00577164620991547</v>
+        <v>0.005398372725596979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N4">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q4">
-        <v>9.678240345045555</v>
+        <v>4.892814052931223</v>
       </c>
       <c r="R4">
-        <v>87.10416310541</v>
+        <v>44.035326476381</v>
       </c>
       <c r="S4">
-        <v>9.129627399115003E-05</v>
+        <v>4.562962383112413E-05</v>
       </c>
       <c r="T4">
-        <v>9.129627399115003E-05</v>
+        <v>4.562962383112413E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N5">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O5">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P5">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q5">
-        <v>0.4609991925427777</v>
+        <v>1.844738144135111</v>
       </c>
       <c r="R5">
-        <v>4.148992732885</v>
+        <v>16.602643297216</v>
       </c>
       <c r="S5">
-        <v>4.348673631940709E-06</v>
+        <v>1.720374137933633E-05</v>
       </c>
       <c r="T5">
-        <v>4.34867363194071E-06</v>
+        <v>1.720374137933632E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N6">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O6">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P6">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q6">
-        <v>291.5168815773684</v>
+        <v>483.6327195631811</v>
       </c>
       <c r="R6">
-        <v>2623.651934196315</v>
+        <v>4352.694476068629</v>
       </c>
       <c r="S6">
-        <v>0.002749921901573501</v>
+        <v>0.004510283617435013</v>
       </c>
       <c r="T6">
-        <v>0.002749921901573502</v>
+        <v>0.004510283617435012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>94.809954</v>
       </c>
       <c r="O7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q7">
         <v>99924.80750763297</v>
@@ -883,10 +883,10 @@
         <v>899323.2675686968</v>
       </c>
       <c r="S7">
-        <v>0.9426055026004672</v>
+        <v>0.9318832329708553</v>
       </c>
       <c r="T7">
-        <v>0.9426055026004673</v>
+        <v>0.9318832329708551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N8">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q8">
-        <v>1580.617084438964</v>
+        <v>844.6121840293205</v>
       </c>
       <c r="R8">
-        <v>14225.55375995067</v>
+        <v>7601.509656263884</v>
       </c>
       <c r="S8">
-        <v>0.01491019496017208</v>
+        <v>0.007876722030209518</v>
       </c>
       <c r="T8">
-        <v>0.01491019496017208</v>
+        <v>0.007876722030209518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N9">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O9">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P9">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q9">
-        <v>75.28881012122166</v>
+        <v>318.4442114546986</v>
       </c>
       <c r="R9">
-        <v>677.5992910909951</v>
+        <v>2865.997903092288</v>
       </c>
       <c r="S9">
-        <v>0.0007102104920150511</v>
+        <v>0.002969761250414129</v>
       </c>
       <c r="T9">
-        <v>0.0007102104920150513</v>
+        <v>0.002969761250414129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N10">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O10">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P10">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q10">
-        <v>9.86365915077889</v>
+        <v>23.80828835602834</v>
       </c>
       <c r="R10">
-        <v>88.77293235701002</v>
+        <v>214.274595204255</v>
       </c>
       <c r="S10">
-        <v>9.304535703598348E-05</v>
+        <v>0.0002220323989418072</v>
       </c>
       <c r="T10">
-        <v>9.304535703598349E-05</v>
+        <v>0.0002220323989418072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>94.809954</v>
       </c>
       <c r="O11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q11">
-        <v>3381.019434035415</v>
+        <v>4919.101902805724</v>
       </c>
       <c r="R11">
-        <v>30429.17490631873</v>
+        <v>44271.91712525152</v>
       </c>
       <c r="S11">
-        <v>0.03189365686471256</v>
+        <v>0.0458747802356239</v>
       </c>
       <c r="T11">
-        <v>0.03189365686471256</v>
+        <v>0.04587478023562389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N12">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q12">
-        <v>53.48118463824223</v>
+        <v>41.57859800004278</v>
       </c>
       <c r="R12">
-        <v>481.3306617441801</v>
+        <v>374.2073820003851</v>
       </c>
       <c r="S12">
-        <v>0.0005044959323213897</v>
+        <v>0.0003877555463263282</v>
       </c>
       <c r="T12">
-        <v>0.0005044959323213897</v>
+        <v>0.0003877555463263281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N13">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O13">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P13">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q13">
-        <v>2.547444789081111</v>
+        <v>15.67638272792889</v>
       </c>
       <c r="R13">
-        <v>22.92700310173</v>
+        <v>141.08744455136</v>
       </c>
       <c r="S13">
-        <v>2.40304238321932E-05</v>
+        <v>0.0001461955102257759</v>
       </c>
       <c r="T13">
-        <v>2.403042383219321E-05</v>
+        <v>0.0001461955102257759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N14">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O14">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P14">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q14">
-        <v>0.1895399814244444</v>
+        <v>0.327736377678</v>
       </c>
       <c r="R14">
-        <v>1.70585983282</v>
+        <v>2.949627399102</v>
       </c>
       <c r="S14">
-        <v>1.787958705247686E-06</v>
+        <v>3.05641854921164E-06</v>
       </c>
       <c r="T14">
-        <v>1.787958705247686E-06</v>
+        <v>3.056418549211639E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>94.809954</v>
       </c>
       <c r="O15">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P15">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q15">
-        <v>64.96963762906933</v>
+        <v>67.714596486156</v>
       </c>
       <c r="R15">
-        <v>584.726738661624</v>
+        <v>609.4313683754041</v>
       </c>
       <c r="S15">
-        <v>0.0006128682101933608</v>
+        <v>0.0006314958083658633</v>
       </c>
       <c r="T15">
-        <v>0.0006128682101933608</v>
+        <v>0.0006314958083658632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N16">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O16">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P16">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q16">
-        <v>1.027693940751111</v>
+        <v>0.572356101106</v>
       </c>
       <c r="R16">
-        <v>9.24924546676</v>
+        <v>5.151204909954001</v>
       </c>
       <c r="S16">
-        <v>9.694389088186723E-06</v>
+        <v>5.337704091834357E-06</v>
       </c>
       <c r="T16">
-        <v>9.694389088186723E-06</v>
+        <v>5.337704091834357E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N17">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O17">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P17">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q17">
-        <v>0.04895167509555555</v>
+        <v>0.215795474816</v>
       </c>
       <c r="R17">
-        <v>0.44056507586</v>
+        <v>1.942159273344</v>
       </c>
       <c r="S17">
-        <v>4.617683982334041E-07</v>
+        <v>2.012475077489178E-06</v>
       </c>
       <c r="T17">
-        <v>4.617683982334042E-07</v>
+        <v>2.012475077489178E-06</v>
       </c>
     </row>
   </sheetData>
